--- a/diff.xlsx
+++ b/diff.xlsx
@@ -56,10 +56,10 @@
     <t>diff9-10</t>
   </si>
   <si>
-    <t>preds10</t>
+    <t>ACTUAL</t>
   </si>
   <si>
-    <t>ACTUAL</t>
+    <t>Preds10</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:L302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G281" sqref="G281"/>
+      <selection activeCell="F280" sqref="F280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,6 +454,9 @@
       <c r="E1">
         <v>81.67</v>
       </c>
+      <c r="F1">
+        <v>82.5</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -472,10 +475,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -509,14 +512,14 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
       </c>
       <c r="H3">
-        <f>ABS(B3-D3)/2</f>
+        <f t="shared" ref="H3:H66" si="0">ABS(B3-D3)/2</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -552,30 +555,30 @@
       <c r="E4" s="2">
         <v>-1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>-1</v>
       </c>
       <c r="G4" s="4">
         <v>-1</v>
       </c>
       <c r="H4">
-        <f>ABS(B4-D4)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>ABS(B4-C4)/2</f>
+        <f t="shared" ref="I4:I67" si="1">ABS(B4-C4)/2</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="0">ABS(C4-D4)/2</f>
+        <f t="shared" ref="J4:J67" si="2">ABS(C4-D4)/2</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="1">ABS(D4-E4)/2</f>
+        <f t="shared" ref="K4:K67" si="3">ABS(D4-E4)/2</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L67" si="2">ABS(E4-F4)/2</f>
+        <f t="shared" ref="L4:L67" si="4">ABS(E4-F4)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -602,23 +605,23 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <f>ABS(B5-D5)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>ABS(B5-C5)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -638,30 +641,30 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6">
-        <f>ABS(B6-D6)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>ABS(B6-C6)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -681,30 +684,30 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7">
-        <f>ABS(B7-D7)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f>ABS(B7-C7)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -724,30 +727,30 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8">
-        <f>ABS(B8-D8)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>ABS(B8-C8)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -772,23 +775,23 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9">
-        <f>ABS(B9-D9)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>ABS(B9-C9)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -812,23 +815,23 @@
         <v>-1</v>
       </c>
       <c r="H10">
-        <f>ABS(B10-D10)/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10">
-        <f>ABS(B10-C10)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -852,23 +855,23 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f>ABS(B11-D11)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>ABS(B11-C11)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -892,23 +895,23 @@
         <v>-1</v>
       </c>
       <c r="H12">
-        <f>ABS(B12-D12)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>ABS(B12-C12)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -932,23 +935,23 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <f>ABS(B13-D13)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>ABS(B13-C13)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -972,23 +975,23 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <f>ABS(B14-D14)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>ABS(B14-C14)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1012,23 +1015,23 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f>ABS(B15-D15)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>ABS(B15-C15)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1052,23 +1055,23 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <f>ABS(B16-D16)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>ABS(B16-C16)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1092,23 +1095,23 @@
         <v>-1</v>
       </c>
       <c r="H17">
-        <f>ABS(B17-D17)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>ABS(B17-C17)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1132,23 +1135,23 @@
         <v>-1</v>
       </c>
       <c r="H18">
-        <f>ABS(B18-D18)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>ABS(B18-C18)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1172,23 +1175,23 @@
         <v>-1</v>
       </c>
       <c r="H19">
-        <f>ABS(B19-D19)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>ABS(B19-C19)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1212,23 +1215,23 @@
         <v>-1</v>
       </c>
       <c r="H20">
-        <f>ABS(B20-D20)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>ABS(B20-C20)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1252,23 +1255,23 @@
         <v>-1</v>
       </c>
       <c r="H21">
-        <f>ABS(B21-D21)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21">
-        <f>ABS(B21-C21)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1292,23 +1295,23 @@
         <v>-1</v>
       </c>
       <c r="H22">
-        <f>ABS(B22-D22)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>ABS(B22-C22)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1332,23 +1335,23 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <f>ABS(B23-D23)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>ABS(B23-C23)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1372,23 +1375,23 @@
         <v>-1</v>
       </c>
       <c r="H24">
-        <f>ABS(B24-D24)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>ABS(B24-C24)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1412,23 +1415,23 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <f>ABS(B25-D25)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>ABS(B25-C25)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1452,23 +1455,23 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f>ABS(B26-D26)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>ABS(B26-C26)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1492,23 +1495,23 @@
         <v>-1</v>
       </c>
       <c r="H27">
-        <f>ABS(B27-D27)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>ABS(B27-C27)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1532,23 +1535,23 @@
         <v>-1</v>
       </c>
       <c r="H28">
-        <f>ABS(B28-D28)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>ABS(B28-C28)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1572,23 +1575,23 @@
         <v>-1</v>
       </c>
       <c r="H29">
-        <f>ABS(B29-D29)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>ABS(B29-C29)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1612,23 +1615,23 @@
         <v>-1</v>
       </c>
       <c r="H30">
-        <f>ABS(B30-D30)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>ABS(B30-C30)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1652,23 +1655,23 @@
         <v>-1</v>
       </c>
       <c r="H31">
-        <f>ABS(B31-D31)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>ABS(B31-C31)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1692,23 +1695,23 @@
         <v>-1</v>
       </c>
       <c r="H32">
-        <f>ABS(B32-D32)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>ABS(B32-C32)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1732,23 +1735,23 @@
         <v>-1</v>
       </c>
       <c r="H33">
-        <f>ABS(B33-D33)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>ABS(B33-C33)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1772,23 +1775,23 @@
         <v>-1</v>
       </c>
       <c r="H34">
-        <f>ABS(B34-D34)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>ABS(B34-C34)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1812,23 +1815,23 @@
         <v>-1</v>
       </c>
       <c r="H35">
-        <f>ABS(B35-D35)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>ABS(B35-C35)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1852,23 +1855,23 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <f>ABS(B36-D36)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>ABS(B36-C36)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1892,23 +1895,23 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <f>ABS(B37-D37)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>ABS(B37-C37)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1932,23 +1935,23 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <f>ABS(B38-D38)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>ABS(B38-C38)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1972,23 +1975,23 @@
         <v>-1</v>
       </c>
       <c r="H39">
-        <f>ABS(B39-D39)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f>ABS(B39-C39)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2012,23 +2015,23 @@
         <v>-1</v>
       </c>
       <c r="H40">
-        <f>ABS(B40-D40)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>ABS(B40-C40)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2052,23 +2055,23 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <f>ABS(B41-D41)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>ABS(B41-C41)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2092,23 +2095,23 @@
         <v>-1</v>
       </c>
       <c r="H42">
-        <f>ABS(B42-D42)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>ABS(B42-C42)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2132,23 +2135,23 @@
         <v>-1</v>
       </c>
       <c r="H43">
-        <f>ABS(B43-D43)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>ABS(B43-C43)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2172,23 +2175,23 @@
         <v>-1</v>
       </c>
       <c r="H44">
-        <f>ABS(B44-D44)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>ABS(B44-C44)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2212,23 +2215,23 @@
         <v>-1</v>
       </c>
       <c r="H45">
-        <f>ABS(B45-D45)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>ABS(B45-C45)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2252,23 +2255,23 @@
         <v>-1</v>
       </c>
       <c r="H46">
-        <f>ABS(B46-D46)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>ABS(B46-C46)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2289,27 +2292,27 @@
         <v>-1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H47">
-        <f>ABS(B47-D47)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>ABS(B47-C47)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2332,23 +2335,23 @@
         <v>-1</v>
       </c>
       <c r="H48">
-        <f>ABS(B48-D48)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>ABS(B48-C48)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2372,23 +2375,23 @@
         <v>-1</v>
       </c>
       <c r="H49">
-        <f>ABS(B49-D49)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f>ABS(B49-C49)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2412,23 +2415,23 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <f>ABS(B50-D50)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>ABS(B50-C50)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2452,23 +2455,23 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <f>ABS(B51-D51)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f>ABS(B51-C51)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2492,23 +2495,23 @@
         <v>-1</v>
       </c>
       <c r="H52">
-        <f>ABS(B52-D52)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>ABS(B52-C52)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2532,23 +2535,23 @@
         <v>-1</v>
       </c>
       <c r="H53">
-        <f>ABS(B53-D53)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f>ABS(B53-C53)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2568,30 +2571,30 @@
       <c r="E54" s="3">
         <v>1</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>1</v>
       </c>
       <c r="G54" s="4">
         <v>-1</v>
       </c>
       <c r="H54">
-        <f>ABS(B54-D54)/2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I54">
-        <f>ABS(B54-C54)/2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2615,23 +2618,23 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <f>ABS(B55-D55)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f>ABS(B55-C55)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2655,23 +2658,23 @@
         <v>-1</v>
       </c>
       <c r="H56">
-        <f>ABS(B56-D56)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f>ABS(B56-C56)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2695,23 +2698,23 @@
         <v>-1</v>
       </c>
       <c r="H57">
-        <f>ABS(B57-D57)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f>ABS(B57-C57)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2735,23 +2738,23 @@
         <v>-1</v>
       </c>
       <c r="H58">
-        <f>ABS(B58-D58)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I58">
-        <f>ABS(B58-C58)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2775,23 +2778,23 @@
         <v>-1</v>
       </c>
       <c r="H59">
-        <f>ABS(B59-D59)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f>ABS(B59-C59)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2815,23 +2818,23 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <f>ABS(B60-D60)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f>ABS(B60-C60)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2855,23 +2858,23 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <f>ABS(B61-D61)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I61">
-        <f>ABS(B61-C61)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2895,23 +2898,23 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <f>ABS(B62-D62)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f>ABS(B62-C62)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2935,23 +2938,23 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <f>ABS(B63-D63)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I63">
-        <f>ABS(B63-C63)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2975,23 +2978,23 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <f>ABS(B64-D64)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f>ABS(B64-C64)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3015,23 +3018,23 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <f>ABS(B65-D65)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f>ABS(B65-C65)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3055,23 +3058,23 @@
         <v>-1</v>
       </c>
       <c r="H66">
-        <f>ABS(B66-D66)/2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I66">
-        <f>ABS(B66-C66)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3095,23 +3098,23 @@
         <v>-1</v>
       </c>
       <c r="H67">
-        <f>ABS(B67-D67)/2</f>
+        <f t="shared" ref="H67:H130" si="5">ABS(B67-D67)/2</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f>ABS(B67-C67)/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3135,23 +3138,23 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <f>ABS(B68-D68)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>ABS(B68-C68)/2</f>
+        <f t="shared" ref="I68:I131" si="6">ABS(B68-C68)/2</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J131" si="3">ABS(C68-D68)/2</f>
+        <f t="shared" ref="J68:J131" si="7">ABS(C68-D68)/2</f>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K131" si="4">ABS(D68-E68)/2</f>
+        <f t="shared" ref="K68:K131" si="8">ABS(D68-E68)/2</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L131" si="5">ABS(E68-F68)/2</f>
+        <f t="shared" ref="L68:L131" si="9">ABS(E68-F68)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -3175,23 +3178,23 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <f>ABS(B69-D69)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f>ABS(B69-C69)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3215,23 +3218,23 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <f>ABS(B70-D70)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f>ABS(B70-C70)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3255,23 +3258,23 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <f>ABS(B71-D71)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>ABS(B71-C71)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3295,23 +3298,23 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <f>ABS(B72-D72)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I72">
-        <f>ABS(B72-C72)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3335,23 +3338,23 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <f>ABS(B73-D73)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I73">
-        <f>ABS(B73-C73)/2</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3375,23 +3378,23 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <f>ABS(B74-D74)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>ABS(B74-C74)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3415,23 +3418,23 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <f>ABS(B75-D75)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>ABS(B75-C75)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3455,23 +3458,23 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <f>ABS(B76-D76)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I76">
-        <f>ABS(B76-C76)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3495,23 +3498,23 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <f>ABS(B77-D77)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I77">
-        <f>ABS(B77-C77)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3535,23 +3538,23 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <f>ABS(B78-D78)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I78">
-        <f>ABS(B78-C78)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3575,23 +3578,23 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <f>ABS(B79-D79)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I79">
-        <f>ABS(B79-C79)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3615,23 +3618,23 @@
         <v>-1</v>
       </c>
       <c r="H80">
-        <f>ABS(B80-D80)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I80">
-        <f>ABS(B80-C80)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3655,23 +3658,23 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <f>ABS(B81-D81)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I81">
-        <f>ABS(B81-C81)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3695,23 +3698,23 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <f>ABS(B82-D82)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I82">
-        <f>ABS(B82-C82)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3735,23 +3738,23 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <f>ABS(B83-D83)/2</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I83">
-        <f>ABS(B83-C83)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3775,23 +3778,23 @@
         <v>-1</v>
       </c>
       <c r="H84">
-        <f>ABS(B84-D84)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I84">
-        <f>ABS(B84-C84)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3815,23 +3818,23 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <f>ABS(B85-D85)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I85">
-        <f>ABS(B85-C85)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3855,23 +3858,23 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <f>ABS(B86-D86)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I86">
-        <f>ABS(B86-C86)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3895,23 +3898,23 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <f>ABS(B87-D87)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I87">
-        <f>ABS(B87-C87)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3935,23 +3938,23 @@
         <v>-1</v>
       </c>
       <c r="H88">
-        <f>ABS(B88-D88)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I88">
-        <f>ABS(B88-C88)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3975,23 +3978,23 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <f>ABS(B89-D89)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I89">
-        <f>ABS(B89-C89)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4015,23 +4018,23 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <f>ABS(B90-D90)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I90">
-        <f>ABS(B90-C90)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4055,23 +4058,23 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <f>ABS(B91-D91)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I91">
-        <f>ABS(B91-C91)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4095,23 +4098,23 @@
         <v>-1</v>
       </c>
       <c r="H92">
-        <f>ABS(B92-D92)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I92">
-        <f>ABS(B92-C92)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4135,23 +4138,23 @@
         <v>-1</v>
       </c>
       <c r="H93">
-        <f>ABS(B93-D93)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f>ABS(B93-C93)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4175,23 +4178,23 @@
         <v>-1</v>
       </c>
       <c r="H94">
-        <f>ABS(B94-D94)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I94">
-        <f>ABS(B94-C94)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4215,23 +4218,23 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <f>ABS(B95-D95)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I95">
-        <f>ABS(B95-C95)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4255,23 +4258,23 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <f>ABS(B96-D96)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I96">
-        <f>ABS(B96-C96)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4295,23 +4298,23 @@
         <v>-1</v>
       </c>
       <c r="H97">
-        <f>ABS(B97-D97)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I97">
-        <f>ABS(B97-C97)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4335,23 +4338,23 @@
         <v>-1</v>
       </c>
       <c r="H98">
-        <f>ABS(B98-D98)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I98">
-        <f>ABS(B98-C98)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4375,23 +4378,23 @@
         <v>-1</v>
       </c>
       <c r="H99">
-        <f>ABS(B99-D99)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I99">
-        <f>ABS(B99-C99)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4415,23 +4418,23 @@
         <v>-1</v>
       </c>
       <c r="H100">
-        <f>ABS(B100-D100)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I100">
-        <f>ABS(B100-C100)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4455,23 +4458,23 @@
         <v>-1</v>
       </c>
       <c r="H101">
-        <f>ABS(B101-D101)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I101">
-        <f>ABS(B101-C101)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4498,23 +4501,23 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <f>ABS(B102-D102)/2</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I102">
-        <f>ABS(B102-C102)/2</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4538,23 +4541,23 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <f>ABS(B103-D103)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I103">
-        <f>ABS(B103-C103)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4578,23 +4581,23 @@
         <v>-1</v>
       </c>
       <c r="H104">
-        <f>ABS(B104-D104)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I104">
-        <f>ABS(B104-C104)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4618,23 +4621,23 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <f>ABS(B105-D105)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f>ABS(B105-C105)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4658,23 +4661,23 @@
         <v>-1</v>
       </c>
       <c r="H106">
-        <f>ABS(B106-D106)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I106">
-        <f>ABS(B106-C106)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4698,23 +4701,23 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <f>ABS(B107-D107)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I107">
-        <f>ABS(B107-C107)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4738,23 +4741,23 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <f>ABS(B108-D108)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I108">
-        <f>ABS(B108-C108)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4778,23 +4781,23 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <f>ABS(B109-D109)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I109">
-        <f>ABS(B109-C109)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4818,23 +4821,23 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <f>ABS(B110-D110)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I110">
-        <f>ABS(B110-C110)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4858,23 +4861,23 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <f>ABS(B111-D111)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I111">
-        <f>ABS(B111-C111)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4898,23 +4901,23 @@
         <v>-1</v>
       </c>
       <c r="H112">
-        <f>ABS(B112-D112)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I112">
-        <f>ABS(B112-C112)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4938,23 +4941,23 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <f>ABS(B113-D113)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I113">
-        <f>ABS(B113-C113)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4978,23 +4981,23 @@
         <v>-1</v>
       </c>
       <c r="H114">
-        <f>ABS(B114-D114)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I114">
-        <f>ABS(B114-C114)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5018,23 +5021,23 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <f>ABS(B115-D115)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I115">
-        <f>ABS(B115-C115)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5058,23 +5061,23 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <f>ABS(B116-D116)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f>ABS(B116-C116)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5098,23 +5101,23 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <f>ABS(B117-D117)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I117">
-        <f>ABS(B117-C117)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,23 +5141,23 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <f>ABS(B118-D118)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I118">
-        <f>ABS(B118-C118)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5178,23 +5181,23 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <f>ABS(B119-D119)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I119">
-        <f>ABS(B119-C119)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5218,23 +5221,23 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <f>ABS(B120-D120)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I120">
-        <f>ABS(B120-C120)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5258,23 +5261,23 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <f>ABS(B121-D121)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I121">
-        <f>ABS(B121-C121)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5298,23 +5301,23 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <f>ABS(B122-D122)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I122">
-        <f>ABS(B122-C122)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5338,23 +5341,23 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <f>ABS(B123-D123)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I123">
-        <f>ABS(B123-C123)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5378,23 +5381,23 @@
         <v>-1</v>
       </c>
       <c r="H124">
-        <f>ABS(B124-D124)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I124">
-        <f>ABS(B124-C124)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5418,23 +5421,23 @@
         <v>-1</v>
       </c>
       <c r="H125">
-        <f>ABS(B125-D125)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I125">
-        <f>ABS(B125-C125)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5458,23 +5461,23 @@
         <v>-1</v>
       </c>
       <c r="H126">
-        <f>ABS(B126-D126)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I126">
-        <f>ABS(B126-C126)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5498,23 +5501,23 @@
         <v>-1</v>
       </c>
       <c r="H127">
-        <f>ABS(B127-D127)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I127">
-        <f>ABS(B127-C127)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5538,23 +5541,23 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <f>ABS(B128-D128)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I128">
-        <f>ABS(B128-C128)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5578,23 +5581,23 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <f>ABS(B129-D129)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I129">
-        <f>ABS(B129-C129)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5618,23 +5621,23 @@
         <v>-1</v>
       </c>
       <c r="H130">
-        <f>ABS(B130-D130)/2</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I130">
-        <f>ABS(B130-C130)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5655,27 +5658,27 @@
         <v>-1</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H131">
-        <f>ABS(B131-D131)/2</f>
+        <f t="shared" ref="H131:H194" si="10">ABS(B131-D131)/2</f>
         <v>0</v>
       </c>
       <c r="I131">
-        <f>ABS(B131-C131)/2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L131">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
@@ -5698,23 +5701,23 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <f>ABS(B132-D132)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I132">
-        <f>ABS(B132-C132)/2</f>
+        <f t="shared" ref="I132:I195" si="11">ABS(B132-C132)/2</f>
         <v>0</v>
       </c>
       <c r="J132">
-        <f t="shared" ref="J132:J195" si="6">ABS(C132-D132)/2</f>
+        <f t="shared" ref="J132:J195" si="12">ABS(C132-D132)/2</f>
         <v>0</v>
       </c>
       <c r="K132">
-        <f t="shared" ref="K132:K195" si="7">ABS(D132-E132)/2</f>
+        <f t="shared" ref="K132:K195" si="13">ABS(D132-E132)/2</f>
         <v>0</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L195" si="8">ABS(E132-F132)/2</f>
+        <f t="shared" ref="L132:L195" si="14">ABS(E132-F132)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -5738,23 +5741,23 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <f>ABS(B133-D133)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I133">
-        <f>ABS(B133-C133)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5778,23 +5781,23 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <f>ABS(B134-D134)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I134">
-        <f>ABS(B134-C134)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5818,23 +5821,23 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <f>ABS(B135-D135)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I135">
-        <f>ABS(B135-C135)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5858,23 +5861,23 @@
         <v>-1</v>
       </c>
       <c r="H136">
-        <f>ABS(B136-D136)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I136">
-        <f>ABS(B136-C136)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5898,23 +5901,23 @@
         <v>-1</v>
       </c>
       <c r="H137">
-        <f>ABS(B137-D137)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I137">
-        <f>ABS(B137-C137)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5938,23 +5941,23 @@
         <v>-1</v>
       </c>
       <c r="H138">
-        <f>ABS(B138-D138)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I138">
-        <f>ABS(B138-C138)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -5978,23 +5981,23 @@
         <v>-1</v>
       </c>
       <c r="H139">
-        <f>ABS(B139-D139)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I139">
-        <f>ABS(B139-C139)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6018,23 +6021,23 @@
         <v>-1</v>
       </c>
       <c r="H140">
-        <f>ABS(B140-D140)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I140">
-        <f>ABS(B140-C140)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6058,23 +6061,23 @@
         <v>-1</v>
       </c>
       <c r="H141">
-        <f>ABS(B141-D141)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I141">
-        <f>ABS(B141-C141)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6098,23 +6101,23 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <f>ABS(B142-D142)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I142">
-        <f>ABS(B142-C142)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6138,23 +6141,23 @@
         <v>-1</v>
       </c>
       <c r="H143">
-        <f>ABS(B143-D143)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I143">
-        <f>ABS(B143-C143)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6178,23 +6181,23 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <f>ABS(B144-D144)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I144">
-        <f>ABS(B144-C144)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6218,23 +6221,23 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <f>ABS(B145-D145)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I145">
-        <f>ABS(B145-C145)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6258,23 +6261,23 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <f>ABS(B146-D146)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I146">
-        <f>ABS(B146-C146)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6298,23 +6301,23 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <f>ABS(B147-D147)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I147">
-        <f>ABS(B147-C147)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6338,23 +6341,23 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <f>ABS(B148-D148)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I148">
-        <f>ABS(B148-C148)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6378,23 +6381,23 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <f>ABS(B149-D149)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I149">
-        <f>ABS(B149-C149)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6418,23 +6421,23 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <f>ABS(B150-D150)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I150">
-        <f>ABS(B150-C150)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6455,27 +6458,27 @@
         <v>-1</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H151">
-        <f>ABS(B151-D151)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I151">
-        <f>ABS(B151-C151)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L151">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
@@ -6498,23 +6501,23 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <f>ABS(B152-D152)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I152">
-        <f>ABS(B152-C152)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6538,23 +6541,23 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <f>ABS(B153-D153)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I153">
-        <f>ABS(B153-C153)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6578,23 +6581,23 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <f>ABS(B154-D154)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I154">
-        <f>ABS(B154-C154)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6618,23 +6621,23 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <f>ABS(B155-D155)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I155">
-        <f>ABS(B155-C155)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6661,23 +6664,23 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <f>ABS(B156-D156)/2</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I156">
-        <f>ABS(B156-C156)/2</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6701,23 +6704,23 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <f>ABS(B157-D157)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I157">
-        <f>ABS(B157-C157)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6741,23 +6744,23 @@
         <v>-1</v>
       </c>
       <c r="H158">
-        <f>ABS(B158-D158)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I158">
-        <f>ABS(B158-C158)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6781,23 +6784,23 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <f>ABS(B159-D159)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I159">
-        <f>ABS(B159-C159)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6821,23 +6824,23 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <f>ABS(B160-D160)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I160">
-        <f>ABS(B160-C160)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6861,23 +6864,23 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <f>ABS(B161-D161)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I161">
-        <f>ABS(B161-C161)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6901,23 +6904,23 @@
         <v>-1</v>
       </c>
       <c r="H162">
-        <f>ABS(B162-D162)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I162">
-        <f>ABS(B162-C162)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6941,23 +6944,23 @@
         <v>-1</v>
       </c>
       <c r="H163">
-        <f>ABS(B163-D163)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I163">
-        <f>ABS(B163-C163)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -6981,23 +6984,23 @@
         <v>-1</v>
       </c>
       <c r="H164">
-        <f>ABS(B164-D164)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I164">
-        <f>ABS(B164-C164)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7021,23 +7024,23 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <f>ABS(B165-D165)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I165">
-        <f>ABS(B165-C165)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7061,23 +7064,23 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <f>ABS(B166-D166)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I166">
-        <f>ABS(B166-C166)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7101,23 +7104,23 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <f>ABS(B167-D167)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I167">
-        <f>ABS(B167-C167)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7141,23 +7144,23 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <f>ABS(B168-D168)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I168">
-        <f>ABS(B168-C168)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7181,23 +7184,23 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <f>ABS(B169-D169)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I169">
-        <f>ABS(B169-C169)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7221,23 +7224,23 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <f>ABS(B170-D170)/2</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I170">
-        <f>ABS(B170-C170)/2</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7261,23 +7264,23 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <f>ABS(B171-D171)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I171">
-        <f>ABS(B171-C171)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7301,23 +7304,23 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <f>ABS(B172-D172)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I172">
-        <f>ABS(B172-C172)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7341,23 +7344,23 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <f>ABS(B173-D173)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I173">
-        <f>ABS(B173-C173)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7381,23 +7384,23 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <f>ABS(B174-D174)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I174">
-        <f>ABS(B174-C174)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7421,23 +7424,23 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <f>ABS(B175-D175)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I175">
-        <f>ABS(B175-C175)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7461,23 +7464,23 @@
         <v>-1</v>
       </c>
       <c r="H176">
-        <f>ABS(B176-D176)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I176">
-        <f>ABS(B176-C176)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7501,23 +7504,23 @@
         <v>-1</v>
       </c>
       <c r="H177">
-        <f>ABS(B177-D177)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I177">
-        <f>ABS(B177-C177)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7541,23 +7544,23 @@
         <v>-1</v>
       </c>
       <c r="H178">
-        <f>ABS(B178-D178)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I178">
-        <f>ABS(B178-C178)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7581,23 +7584,23 @@
         <v>-1</v>
       </c>
       <c r="H179">
-        <f>ABS(B179-D179)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I179">
-        <f>ABS(B179-C179)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7621,23 +7624,23 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <f>ABS(B180-D180)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I180">
-        <f>ABS(B180-C180)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7661,23 +7664,23 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <f>ABS(B181-D181)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I181">
-        <f>ABS(B181-C181)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7701,23 +7704,23 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <f>ABS(B182-D182)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I182">
-        <f>ABS(B182-C182)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7741,23 +7744,23 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <f>ABS(B183-D183)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I183">
-        <f>ABS(B183-C183)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,23 +7784,23 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <f>ABS(B184-D184)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I184">
-        <f>ABS(B184-C184)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7821,23 +7824,23 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <f>ABS(B185-D185)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I185">
-        <f>ABS(B185-C185)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7861,23 +7864,23 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <f>ABS(B186-D186)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I186">
-        <f>ABS(B186-C186)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7901,23 +7904,23 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <f>ABS(B187-D187)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I187">
-        <f>ABS(B187-C187)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7941,23 +7944,23 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <f>ABS(B188-D188)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I188">
-        <f>ABS(B188-C188)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -7981,23 +7984,23 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <f>ABS(B189-D189)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I189">
-        <f>ABS(B189-C189)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8021,23 +8024,23 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <f>ABS(B190-D190)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I190">
-        <f>ABS(B190-C190)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8061,23 +8064,23 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <f>ABS(B191-D191)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I191">
-        <f>ABS(B191-C191)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8101,23 +8104,23 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <f>ABS(B192-D192)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I192">
-        <f>ABS(B192-C192)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8141,23 +8144,23 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <f>ABS(B193-D193)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I193">
-        <f>ABS(B193-C193)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8181,23 +8184,23 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <f>ABS(B194-D194)/2</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I194">
-        <f>ABS(B194-C194)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8221,23 +8224,23 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <f>ABS(B195-D195)/2</f>
+        <f t="shared" ref="H195:H258" si="15">ABS(B195-D195)/2</f>
         <v>0</v>
       </c>
       <c r="I195">
-        <f>ABS(B195-C195)/2</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -8261,23 +8264,23 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <f>ABS(B196-D196)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I196">
-        <f>ABS(B196-C196)/2</f>
+        <f t="shared" ref="I196:I259" si="16">ABS(B196-C196)/2</f>
         <v>0</v>
       </c>
       <c r="J196">
-        <f t="shared" ref="J196:J259" si="9">ABS(C196-D196)/2</f>
+        <f t="shared" ref="J196:J259" si="17">ABS(C196-D196)/2</f>
         <v>0</v>
       </c>
       <c r="K196">
-        <f t="shared" ref="K196:K259" si="10">ABS(D196-E196)/2</f>
+        <f t="shared" ref="K196:K259" si="18">ABS(D196-E196)/2</f>
         <v>0</v>
       </c>
       <c r="L196">
-        <f t="shared" ref="L196:L259" si="11">ABS(E196-F196)/2</f>
+        <f t="shared" ref="L196:L259" si="19">ABS(E196-F196)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -8301,23 +8304,23 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <f>ABS(B197-D197)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I197">
-        <f>ABS(B197-C197)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8341,23 +8344,23 @@
         <v>-1</v>
       </c>
       <c r="H198">
-        <f>ABS(B198-D198)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I198">
-        <f>ABS(B198-C198)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8381,23 +8384,23 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <f>ABS(B199-D199)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I199">
-        <f>ABS(B199-C199)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8421,23 +8424,23 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <f>ABS(B200-D200)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I200">
-        <f>ABS(B200-C200)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="L200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8464,23 +8467,23 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <f>ABS(B201-D201)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I201">
-        <f>ABS(B201-C201)/2</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8504,23 +8507,23 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <f>ABS(B202-D202)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I202">
-        <f>ABS(B202-C202)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8544,23 +8547,23 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <f>ABS(B203-D203)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I203">
-        <f>ABS(B203-C203)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8584,23 +8587,23 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <f>ABS(B204-D204)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I204">
-        <f>ABS(B204-C204)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8624,23 +8627,23 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <f>ABS(B205-D205)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I205">
-        <f>ABS(B205-C205)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8664,23 +8667,23 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <f>ABS(B206-D206)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I206">
-        <f>ABS(B206-C206)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8704,23 +8707,23 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <f>ABS(B207-D207)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I207">
-        <f>ABS(B207-C207)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8744,23 +8747,23 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <f>ABS(B208-D208)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I208">
-        <f>ABS(B208-C208)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8784,23 +8787,23 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <f>ABS(B209-D209)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I209">
-        <f>ABS(B209-C209)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8824,23 +8827,23 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <f>ABS(B210-D210)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I210">
-        <f>ABS(B210-C210)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8864,23 +8867,23 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <f>ABS(B211-D211)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I211">
-        <f>ABS(B211-C211)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8904,23 +8907,23 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <f>ABS(B212-D212)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I212">
-        <f>ABS(B212-C212)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8944,23 +8947,23 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <f>ABS(B213-D213)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I213">
-        <f>ABS(B213-C213)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8984,23 +8987,23 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <f>ABS(B214-D214)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I214">
-        <f>ABS(B214-C214)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9024,23 +9027,23 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <f>ABS(B215-D215)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I215">
-        <f>ABS(B215-C215)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9064,23 +9067,23 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <f>ABS(B216-D216)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I216">
-        <f>ABS(B216-C216)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9104,23 +9107,23 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <f>ABS(B217-D217)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I217">
-        <f>ABS(B217-C217)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9144,23 +9147,23 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <f>ABS(B218-D218)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I218">
-        <f>ABS(B218-C218)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9184,23 +9187,23 @@
         <v>-1</v>
       </c>
       <c r="H219">
-        <f>ABS(B219-D219)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I219">
-        <f>ABS(B219-C219)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9224,23 +9227,23 @@
         <v>-1</v>
       </c>
       <c r="H220">
-        <f>ABS(B220-D220)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I220">
-        <f>ABS(B220-C220)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9264,23 +9267,23 @@
         <v>-1</v>
       </c>
       <c r="H221">
-        <f>ABS(B221-D221)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I221">
-        <f>ABS(B221-C221)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9304,23 +9307,23 @@
         <v>-1</v>
       </c>
       <c r="H222">
-        <f>ABS(B222-D222)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I222">
-        <f>ABS(B222-C222)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9344,23 +9347,23 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <f>ABS(B223-D223)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I223">
-        <f>ABS(B223-C223)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9384,23 +9387,23 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <f>ABS(B224-D224)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I224">
-        <f>ABS(B224-C224)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9424,23 +9427,23 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <f>ABS(B225-D225)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I225">
-        <f>ABS(B225-C225)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9464,23 +9467,23 @@
         <v>-1</v>
       </c>
       <c r="H226">
-        <f>ABS(B226-D226)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I226">
-        <f>ABS(B226-C226)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9504,23 +9507,23 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <f>ABS(B227-D227)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I227">
-        <f>ABS(B227-C227)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9544,23 +9547,23 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <f>ABS(B228-D228)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I228">
-        <f>ABS(B228-C228)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9584,23 +9587,23 @@
         <v>-1</v>
       </c>
       <c r="H229">
-        <f>ABS(B229-D229)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I229">
-        <f>ABS(B229-C229)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9624,23 +9627,23 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <f>ABS(B230-D230)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I230">
-        <f>ABS(B230-C230)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9664,23 +9667,23 @@
         <v>-1</v>
       </c>
       <c r="H231">
-        <f>ABS(B231-D231)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I231">
-        <f>ABS(B231-C231)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9704,23 +9707,23 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <f>ABS(B232-D232)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I232">
-        <f>ABS(B232-C232)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9744,23 +9747,23 @@
         <v>-1</v>
       </c>
       <c r="H233">
-        <f>ABS(B233-D233)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I233">
-        <f>ABS(B233-C233)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9781,30 +9784,30 @@
         <v>-1</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G234">
         <v>-1</v>
       </c>
       <c r="H234">
-        <f>ABS(B234-D234)/2</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I234">
-        <f>ABS(B234-C234)/2</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L234">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
@@ -9827,23 +9830,23 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <f>ABS(B235-D235)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I235">
-        <f>ABS(B235-C235)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9867,23 +9870,23 @@
         <v>-1</v>
       </c>
       <c r="H236">
-        <f>ABS(B236-D236)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I236">
-        <f>ABS(B236-C236)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9907,23 +9910,23 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <f>ABS(B237-D237)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I237">
-        <f>ABS(B237-C237)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9947,23 +9950,23 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <f>ABS(B238-D238)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I238">
-        <f>ABS(B238-C238)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -9987,23 +9990,23 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <f>ABS(B239-D239)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I239">
-        <f>ABS(B239-C239)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10027,23 +10030,23 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <f>ABS(B240-D240)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I240">
-        <f>ABS(B240-C240)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10067,23 +10070,23 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <f>ABS(B241-D241)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I241">
-        <f>ABS(B241-C241)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10107,23 +10110,23 @@
         <v>-1</v>
       </c>
       <c r="H242">
-        <f>ABS(B242-D242)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I242">
-        <f>ABS(B242-C242)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10147,23 +10150,23 @@
         <v>-1</v>
       </c>
       <c r="H243">
-        <f>ABS(B243-D243)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I243">
-        <f>ABS(B243-C243)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10187,23 +10190,23 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <f>ABS(B244-D244)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I244">
-        <f>ABS(B244-C244)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10227,23 +10230,23 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <f>ABS(B245-D245)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I245">
-        <f>ABS(B245-C245)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10267,23 +10270,23 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <f>ABS(B246-D246)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I246">
-        <f>ABS(B246-C246)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10307,23 +10310,23 @@
         <v>-1</v>
       </c>
       <c r="H247">
-        <f>ABS(B247-D247)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I247">
-        <f>ABS(B247-C247)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10347,23 +10350,23 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <f>ABS(B248-D248)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I248">
-        <f>ABS(B248-C248)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10387,23 +10390,23 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <f>ABS(B249-D249)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I249">
-        <f>ABS(B249-C249)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10427,23 +10430,23 @@
         <v>-1</v>
       </c>
       <c r="H250">
-        <f>ABS(B250-D250)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I250">
-        <f>ABS(B250-C250)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10467,23 +10470,23 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <f>ABS(B251-D251)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I251">
-        <f>ABS(B251-C251)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10507,23 +10510,23 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <f>ABS(B252-D252)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I252">
-        <f>ABS(B252-C252)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10547,23 +10550,23 @@
         <v>-1</v>
       </c>
       <c r="H253">
-        <f>ABS(B253-D253)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I253">
-        <f>ABS(B253-C253)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10587,23 +10590,23 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <f>ABS(B254-D254)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I254">
-        <f>ABS(B254-C254)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10627,23 +10630,23 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <f>ABS(B255-D255)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I255">
-        <f>ABS(B255-C255)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10667,23 +10670,23 @@
         <v>-1</v>
       </c>
       <c r="H256">
-        <f>ABS(B256-D256)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I256">
-        <f>ABS(B256-C256)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10707,23 +10710,23 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <f>ABS(B257-D257)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I257">
-        <f>ABS(B257-C257)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10747,23 +10750,23 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <f>ABS(B258-D258)/2</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I258">
-        <f>ABS(B258-C258)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10787,23 +10790,23 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <f>ABS(B259-D259)/2</f>
+        <f t="shared" ref="H259:H302" si="20">ABS(B259-D259)/2</f>
         <v>0</v>
       </c>
       <c r="I259">
-        <f>ABS(B259-C259)/2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J259">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K259">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L259">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -10827,23 +10830,23 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <f>ABS(B260-D260)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I260">
-        <f>ABS(B260-C260)/2</f>
+        <f t="shared" ref="I260:I302" si="21">ABS(B260-C260)/2</f>
         <v>0</v>
       </c>
       <c r="J260">
-        <f t="shared" ref="J260:J302" si="12">ABS(C260-D260)/2</f>
+        <f t="shared" ref="J260:J302" si="22">ABS(C260-D260)/2</f>
         <v>0</v>
       </c>
       <c r="K260">
-        <f t="shared" ref="K260:K302" si="13">ABS(D260-E260)/2</f>
+        <f t="shared" ref="K260:K302" si="23">ABS(D260-E260)/2</f>
         <v>0</v>
       </c>
       <c r="L260">
-        <f t="shared" ref="L260:L302" si="14">ABS(E260-F260)/2</f>
+        <f t="shared" ref="L260:L302" si="24">ABS(E260-F260)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -10867,23 +10870,23 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <f>ABS(B261-D261)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I261">
-        <f>ABS(B261-C261)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -10907,23 +10910,23 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <f>ABS(B262-D262)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I262">
-        <f>ABS(B262-C262)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -10947,23 +10950,23 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <f>ABS(B263-D263)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I263">
-        <f>ABS(B263-C263)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -10987,23 +10990,23 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <f>ABS(B264-D264)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I264">
-        <f>ABS(B264-C264)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11027,23 +11030,23 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <f>ABS(B265-D265)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I265">
-        <f>ABS(B265-C265)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11067,23 +11070,23 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <f>ABS(B266-D266)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I266">
-        <f>ABS(B266-C266)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11107,23 +11110,23 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <f>ABS(B267-D267)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I267">
-        <f>ABS(B267-C267)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11147,23 +11150,23 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <f>ABS(B268-D268)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I268">
-        <f>ABS(B268-C268)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11187,23 +11190,23 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <f>ABS(B269-D269)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I269">
-        <f>ABS(B269-C269)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11227,23 +11230,23 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <f>ABS(B270-D270)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I270">
-        <f>ABS(B270-C270)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11267,23 +11270,23 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <f>ABS(B271-D271)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I271">
-        <f>ABS(B271-C271)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11307,23 +11310,23 @@
         <v>-1</v>
       </c>
       <c r="H272">
-        <f>ABS(B272-D272)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I272">
-        <f>ABS(B272-C272)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11347,23 +11350,23 @@
         <v>-1</v>
       </c>
       <c r="H273">
-        <f>ABS(B273-D273)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I273">
-        <f>ABS(B273-C273)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11387,23 +11390,23 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <f>ABS(B274-D274)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I274">
-        <f>ABS(B274-C274)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11427,23 +11430,23 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <f>ABS(B275-D275)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I275">
-        <f>ABS(B275-C275)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11467,23 +11470,23 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <f>ABS(B276-D276)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I276">
-        <f>ABS(B276-C276)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11503,30 +11506,30 @@
       <c r="E277">
         <v>1</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="3">
         <v>1</v>
       </c>
       <c r="G277">
         <v>-1</v>
       </c>
       <c r="H277">
-        <f>ABS(B277-D277)/2</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I277">
-        <f>ABS(B277-C277)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11550,23 +11553,23 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <f>ABS(B278-D278)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I278">
-        <f>ABS(B278-C278)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11590,23 +11593,23 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <f>ABS(B279-D279)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I279">
-        <f>ABS(B279-C279)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11626,30 +11629,30 @@
       <c r="E280">
         <v>1</v>
       </c>
-      <c r="F280">
+      <c r="F280" s="3">
         <v>1</v>
       </c>
       <c r="G280">
         <v>-1</v>
       </c>
       <c r="H280">
-        <f>ABS(B280-D280)/2</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="I280">
-        <f>ABS(B280-C280)/2</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11673,23 +11676,23 @@
         <v>-1</v>
       </c>
       <c r="H281">
-        <f>ABS(B281-D281)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I281">
-        <f>ABS(B281-C281)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11713,23 +11716,23 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <f>ABS(B282-D282)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I282">
-        <f>ABS(B282-C282)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11753,23 +11756,23 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <f>ABS(B283-D283)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I283">
-        <f>ABS(B283-C283)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11793,23 +11796,23 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <f>ABS(B284-D284)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I284">
-        <f>ABS(B284-C284)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11833,23 +11836,23 @@
         <v>-1</v>
       </c>
       <c r="H285">
-        <f>ABS(B285-D285)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I285">
-        <f>ABS(B285-C285)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11873,23 +11876,23 @@
         <v>-1</v>
       </c>
       <c r="H286">
-        <f>ABS(B286-D286)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I286">
-        <f>ABS(B286-C286)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11913,23 +11916,23 @@
         <v>-1</v>
       </c>
       <c r="H287">
-        <f>ABS(B287-D287)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I287">
-        <f>ABS(B287-C287)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11953,23 +11956,23 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <f>ABS(B288-D288)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I288">
-        <f>ABS(B288-C288)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11993,23 +11996,23 @@
         <v>-1</v>
       </c>
       <c r="H289">
-        <f>ABS(B289-D289)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I289">
-        <f>ABS(B289-C289)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12033,23 +12036,23 @@
         <v>-1</v>
       </c>
       <c r="H290">
-        <f>ABS(B290-D290)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I290">
-        <f>ABS(B290-C290)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12073,23 +12076,23 @@
         <v>-1</v>
       </c>
       <c r="H291">
-        <f>ABS(B291-D291)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I291">
-        <f>ABS(B291-C291)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -12113,23 +12116,23 @@
         <v>-1</v>
       </c>
       <c r="H292">
-        <f>ABS(B292-D292)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I292">
-        <f>ABS(B292-C292)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12153,23 +12156,23 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <f>ABS(B293-D293)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I293">
-        <f>ABS(B293-C293)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -12193,23 +12196,23 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <f>ABS(B294-D294)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I294">
-        <f>ABS(B294-C294)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12233,23 +12236,23 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <f>ABS(B295-D295)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I295">
-        <f>ABS(B295-C295)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12273,23 +12276,23 @@
         <v>-1</v>
       </c>
       <c r="H296">
-        <f>ABS(B296-D296)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I296">
-        <f>ABS(B296-C296)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12313,23 +12316,23 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <f>ABS(B297-D297)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I297">
-        <f>ABS(B297-C297)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12353,23 +12356,23 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <f>ABS(B298-D298)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I298">
-        <f>ABS(B298-C298)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12393,23 +12396,23 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <f>ABS(B299-D299)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I299">
-        <f>ABS(B299-C299)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12433,23 +12436,23 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <f>ABS(B300-D300)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I300">
-        <f>ABS(B300-C300)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12473,23 +12476,23 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <f>ABS(B301-D301)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I301">
-        <f>ABS(B301-C301)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12513,23 +12516,23 @@
         <v>-1</v>
       </c>
       <c r="H302">
-        <f>ABS(B302-D302)/2</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I302">
-        <f>ABS(B302-C302)/2</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
